--- a/statistics/SPSS/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
@@ -80,11 +80,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.019386755120450905</v>
+        <v>0.01777119219374651</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0385165412833397</v>
+        <v>0.035306829509728077</v>
       </c>
       <c r="C2" s="0">
-        <v>0.02951733202950102</v>
+        <v>0.02705755436037599</v>
       </c>
       <c r="D2" s="0">
-        <v>0.015652532422718801</v>
+        <v>0.014348154720825457</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.024361152563792343</v>
+        <v>-0.022331056516809611</v>
       </c>
       <c r="F2" s="0">
-        <v>0.011667304741742879</v>
+        <v>0.010695029346597718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.049549507989405606</v>
+        <v>0.045420382323621777</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.023589883911403819</v>
+        <v>-0.021624060252120159</v>
       </c>
       <c r="C3" s="0">
-        <v>0.010562248614860992</v>
+        <v>0.0096820612302892517</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00075840612925009987</v>
+        <v>0.00069520561847924434</v>
       </c>
       <c r="E3" s="0">
-        <v>0.011804194668644796</v>
+        <v>0.010820511779591091</v>
       </c>
       <c r="F3" s="0">
-        <v>0.019726641089831465</v>
+        <v>0.018082754332345685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.010766329820038334</v>
+        <v>-0.009869135668368445</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0010075301183507523</v>
+        <v>-0.00092356927515491183</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02697027525402812</v>
+        <v>0.024722752316192476</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0045548922360516553</v>
+        <v>0.0041753178830472581</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0051203987130760686</v>
+        <v>0.004693698820319725</v>
       </c>
       <c r="F4" s="0">
-        <v>0.017288191201234759</v>
+        <v>0.015847508601131821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0090385860572196886</v>
+        <v>0.0082853705524512655</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00052132150287614865</v>
+        <v>0.00047787804430315939</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0048435919683733619</v>
+        <v>-0.0044399593043420449</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0093410103291526325</v>
+        <v>-0.0085625928017231678</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0052580403043959167</v>
+        <v>-0.0048198702790294701</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.039907718587095575</v>
+        <v>-0.036582075371504263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0063692237605280644</v>
+        <v>-0.0058384551138173646</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.019273497008419849</v>
+        <v>-0.01766737225771825</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02733033325918699</v>
+        <v>0.025052805487588148</v>
       </c>
       <c r="D6" s="0">
-        <v>0.016699020407460352</v>
+        <v>0.015307435373505429</v>
       </c>
       <c r="E6" s="0">
-        <v>0.015840289753333125</v>
+        <v>0.014520265607222083</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0072997428069891956</v>
+        <v>-0.0066914309064067257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0025113602753354947</v>
+        <v>-0.0023020802523908146</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.011621121479294116</v>
+        <v>-0.010652694689352815</v>
       </c>
       <c r="C7" s="0">
-        <v>0.021429390994608444</v>
+        <v>0.0196436084117243</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.015498597330895481</v>
+        <v>-0.014207047553320862</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.05146812512883947</v>
+        <v>-0.047179114701436153</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0094297754235642683</v>
+        <v>-0.0086439608049339589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.019802918140513992</v>
+        <v>0.01815267496213796</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0092764857257611189</v>
+        <v>0.0085034452486143497</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.003678583129928914</v>
+        <v>-0.0033720345357681758</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0093276959218987487</v>
+        <v>-0.0085503879284071771</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.017194511604449514</v>
+        <v>-0.015761635637412119</v>
       </c>
       <c r="F8" s="0">
-        <v>0.027697284264313338</v>
+        <v>0.02538917724228712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00018631639185001658</v>
+        <v>-0.00017079002586256609</v>
       </c>
       <c r="B9" s="0">
-        <v>0.031501609101288575</v>
+        <v>0.028876475009514402</v>
       </c>
       <c r="C9" s="0">
-        <v>0.03737944652848163</v>
+        <v>0.034264492651108258</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.012836414026890286</v>
+        <v>-0.011766712857982808</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0055706755892759308</v>
+        <v>0.0051064526235027885</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0010333622080381799</v>
+        <v>0.00094724869070161866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0013932582255565262</v>
+        <v>0.0012771533734267093</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0033903929784936393</v>
+        <v>-0.0031078602302859748</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0063073963695081114</v>
+        <v>-0.0057817800053824864</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.045632429519897655</v>
+        <v>-0.041829727059906063</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0050065829051336164</v>
+        <v>0.0045893676630391345</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.026782017154687976</v>
+        <v>-0.024550182391797237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013842719277501858</v>
+        <v>-0.012689159337710199</v>
       </c>
       <c r="B11" s="0">
-        <v>0.016055454842640149</v>
+        <v>0.014717500272420192</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.017192234583538968</v>
+        <v>-0.015759548368244058</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0030137916007481058</v>
+        <v>0.0027626423006856804</v>
       </c>
       <c r="E11" s="0">
-        <v>0.019422485726833472</v>
+        <v>0.017803945249597386</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0058207358931995357</v>
+        <v>0.0053356745687662688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.027576288445853747</v>
+        <v>0.025278264408699125</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0036318187972027571</v>
+        <v>-0.0033291672307690923</v>
       </c>
       <c r="C12" s="0">
-        <v>0.024055199831597318</v>
+        <v>0.022050599845630847</v>
       </c>
       <c r="D12" s="0">
-        <v>0.008627417404795612</v>
+        <v>0.0079084659543959268</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0096912541264527197</v>
+        <v>-0.0088836496159150902</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0016191537930668742</v>
+        <v>-0.0014842243103112551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-9.0383385577541553e-06</v>
+        <v>-8.2851436778441645e-06</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.027183599466208241</v>
+        <v>-0.024918299510690745</v>
       </c>
       <c r="C13" s="0">
-        <v>0.022997876773620474</v>
+        <v>0.021081387042485467</v>
       </c>
       <c r="D13" s="0">
-        <v>0.015037800363887355</v>
+        <v>0.01378465033356352</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0027306295422238058</v>
+        <v>-0.0025030770803717295</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0069443439008655683</v>
+        <v>0.006365648575793359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0041623720195149705</v>
+        <v>0.0038155076845552971</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0055323769091884523</v>
+        <v>-0.0050713455000894747</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0048484315565060498</v>
+        <v>-0.004444395593463879</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0025763465661163831</v>
+        <v>0.0023616510189400919</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0066851153807674923</v>
+        <v>-0.0061280224323702059</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.01404898473409677</v>
+        <v>-0.012878236006255428</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.03924878628435946</v>
+        <v>0.035978054093996126</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0043911312027253846</v>
+        <v>0.0040252036024982507</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0091988865444243562</v>
+        <v>-0.008432312665722308</v>
       </c>
       <c r="D15" s="0">
-        <v>0.012372673127821865</v>
+        <v>0.011341617033836793</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0085950737543389333</v>
+        <v>0.0078788176081440175</v>
       </c>
       <c r="F15" s="0">
-        <v>0.018660681393600775</v>
+        <v>0.017105624610800729</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0017767390955795714</v>
+        <v>-0.0016286775042814172</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0059204334948040338</v>
+        <v>0.0054270640369038503</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.024000306609002264</v>
+        <v>-0.02200028105825208</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0026540329743989788</v>
+        <v>-0.0024328635598658277</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0010355820632499957</v>
+        <v>-0.00094928355797918584</v>
       </c>
       <c r="F16" s="0">
-        <v>0.013127253536460659</v>
+        <v>0.012033315741755535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.041176952408836398</v>
+        <v>0.037745539708100129</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0050460472657269384</v>
+        <v>0.0046255433269163926</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.014598731990036251</v>
+        <v>-0.013382170990866749</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0036731123687646083</v>
+        <v>-0.0033670196713674883</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.025669656104438721</v>
+        <v>-0.023530518095735586</v>
       </c>
       <c r="F17" s="0">
-        <v>0.013461513461513364</v>
+        <v>0.012339720673053889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0024250899536941706</v>
+        <v>0.0022229991242196379</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0067149569764804462</v>
+        <v>0.0061553772284403396</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0030909304140335214</v>
+        <v>0.0028333528795307927</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.0078613256362616846</v>
+        <v>-0.00720621516657316</v>
       </c>
       <c r="E18" s="0">
-        <v>0.013709982602322146</v>
+        <v>0.012567484052128652</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.019055212481713435</v>
+        <v>-0.017467278108237394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012731002223755894</v>
+        <v>-0.011670085371776218</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.011023294585460808</v>
+        <v>-0.010104686703339083</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0083846315730373711</v>
+        <v>0.0076859122752843123</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0024094375285652059</v>
+        <v>0.0022086510678514526</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.020058317573845519</v>
+        <v>-0.01838679110935848</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.030238267264915242</v>
+        <v>-0.027718411659505671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0032460982771541635</v>
+        <v>-0.0029755900873912333</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0027235547830514739</v>
+        <v>0.002496591884463828</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.021673441963296958</v>
+        <v>-0.019867321799688975</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0088709244719474278</v>
+        <v>-0.008131680765951721</v>
       </c>
       <c r="E20" s="0">
-        <v>0.027379223031396949</v>
+        <v>0.025097621112113944</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.006256178360672382</v>
+        <v>-0.0057348301639496002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.031930292799857984</v>
+        <v>-0.029269435066536509</v>
       </c>
       <c r="B21" s="0">
-        <v>0.023566547021924622</v>
+        <v>0.021602668103430922</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.019907867733954754</v>
+        <v>-0.018248878756125242</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.016200322264395606</v>
+        <v>-0.014850295409029268</v>
       </c>
       <c r="E21" s="0">
-        <v>0.019548253043676245</v>
+        <v>0.017919231956703308</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.026583722235896279</v>
+        <v>-0.02436841204957152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0090553651934725532</v>
+        <v>-0.0083007514273499283</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0017345862001659218</v>
+        <v>0.0015900373501521181</v>
       </c>
       <c r="C22" s="0">
-        <v>0.013992563029124216</v>
+        <v>0.012826516110030606</v>
       </c>
       <c r="D22" s="0">
-        <v>0.015412960829571387</v>
+        <v>0.014128547427107119</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0082600629184479968</v>
+        <v>0.0075717243419106683</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0036448079926341137</v>
+        <v>-0.003341073993247845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0083477275506260717</v>
+        <v>-0.0076520835880738436</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.029111712341525986</v>
+        <v>-0.026685736313065478</v>
       </c>
       <c r="C23" s="0">
-        <v>0.028004125258129786</v>
+        <v>0.02567044815328573</v>
       </c>
       <c r="D23" s="0">
-        <v>0.021718282587847859</v>
+        <v>0.0199084257055272</v>
       </c>
       <c r="E23" s="0">
-        <v>0.038221399205380924</v>
+        <v>0.035036282604932467</v>
       </c>
       <c r="F23" s="0">
-        <v>0.012570673855839987</v>
+        <v>0.011523117701186747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.011262533001663466</v>
+        <v>0.010323988584858057</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0083651798945467148</v>
+        <v>-0.0076680815700012062</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0098548794200967182</v>
+        <v>-0.0090336394684220611</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.024297403588021627</v>
+        <v>-0.022272619955686468</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.02086848654354384</v>
+        <v>-0.019129445998248396</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.002991922900389743</v>
+        <v>-0.0027425959920238663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.012296209447633599</v>
+        <v>-0.011271525326997434</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.01170509866162045</v>
+        <v>-0.010729673773152093</v>
       </c>
       <c r="C25" s="0">
-        <v>0.020826252051548422</v>
+        <v>0.019090731047252785</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.022161348248304791</v>
+        <v>-0.020314569227612711</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.011597163319354287</v>
+        <v>-0.010630733042741425</v>
       </c>
       <c r="F25" s="0">
-        <v>0.025622310269049375</v>
+        <v>0.02348711774662865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.028613841733597489</v>
+        <v>-0.026229354922464421</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0062421379191566762</v>
+        <v>-0.0057219597592267912</v>
       </c>
       <c r="C26" s="0">
-        <v>0.025506054220306773</v>
+        <v>0.023380549701947806</v>
       </c>
       <c r="D26" s="0">
-        <v>0.001712695947944376</v>
+        <v>0.0015699712856157011</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0043536039912851487</v>
+        <v>-0.0039908036586780438</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0052185784282971492</v>
+        <v>-0.004783696892605771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.018662031247843547</v>
+        <v>-0.017106861977189858</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0037176640914247105</v>
+        <v>0.0034078587504726698</v>
       </c>
       <c r="C27" s="0">
-        <v>0.033981097335134547</v>
+        <v>0.031149339223873418</v>
       </c>
       <c r="D27" s="0">
-        <v>0.011547402851750599</v>
+        <v>0.010585119280771549</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.00011100011100007023</v>
+        <v>-0.00010175010175006438</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.016046820394646555</v>
+        <v>-0.014709585361759259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.012681607557383956</v>
+        <v>-0.011624806927601927</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.010387055969103609</v>
+        <v>-0.0095214679716784101</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0093983499780601054</v>
+        <v>-0.0086151541465551151</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0075408028824178741</v>
+        <v>-0.0069124026422163198</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.01173913910840374</v>
+        <v>-0.010760877516036771</v>
       </c>
       <c r="F28" s="0">
-        <v>0.0024532869801411339</v>
+        <v>0.0022488463984626783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.011891553653567311</v>
+        <v>0.010900590849103331</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0015707189620232653</v>
+        <v>-0.0014398257151880256</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.025684940540013079</v>
+        <v>-0.02354452882834529</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0016695326629369012</v>
+        <v>0.0015304049410255205</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0098090185046705858</v>
+        <v>0.0089916002959479768</v>
       </c>
       <c r="F29" s="0">
-        <v>0.024108806717502373</v>
+        <v>0.022099739491043935</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0069853944853944805</v>
+        <v>0.0064032782782783015</v>
       </c>
       <c r="B30" s="0">
-        <v>0.015086296064556692</v>
+        <v>0.013829104725843866</v>
       </c>
       <c r="C30" s="0">
-        <v>0.030689827791276991</v>
+        <v>0.028132342142003885</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0095772014250274373</v>
+        <v>0.0087791013062751833</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0041556873078610335</v>
+        <v>0.003809380032205989</v>
       </c>
       <c r="F30" s="0">
-        <v>0.045672838579017105</v>
+        <v>0.041866768697432222</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_theta/roiObjectLvl_Within-PLI_theta.xlsx
@@ -80,11 +80,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.01777119219374651</v>
+        <v>0.019386755120450905</v>
       </c>
       <c r="B2" s="0">
-        <v>0.035306829509728077</v>
+        <v>0.0385165412833397</v>
       </c>
       <c r="C2" s="0">
-        <v>0.02705755436037599</v>
+        <v>0.02951733202950102</v>
       </c>
       <c r="D2" s="0">
-        <v>0.014348154720825457</v>
+        <v>0.015652532422718801</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.022331056516809611</v>
+        <v>-0.024361152563792343</v>
       </c>
       <c r="F2" s="0">
-        <v>0.010695029346597718</v>
+        <v>0.011667304741742879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.045420382323621777</v>
+        <v>0.049549507989405606</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.021624060252120159</v>
+        <v>-0.023589883911403819</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0096820612302892517</v>
+        <v>0.010562248614860992</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00069520561847924434</v>
+        <v>0.00075840612925009987</v>
       </c>
       <c r="E3" s="0">
-        <v>0.010820511779591091</v>
+        <v>0.011804194668644796</v>
       </c>
       <c r="F3" s="0">
-        <v>0.018082754332345685</v>
+        <v>0.019726641089831465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.009869135668368445</v>
+        <v>-0.010766329820038334</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.00092356927515491183</v>
+        <v>-0.0010075301183507523</v>
       </c>
       <c r="C4" s="0">
-        <v>0.024722752316192476</v>
+        <v>0.02697027525402812</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0041753178830472581</v>
+        <v>0.0045548922360516553</v>
       </c>
       <c r="E4" s="0">
-        <v>0.004693698820319725</v>
+        <v>0.0051203987130760686</v>
       </c>
       <c r="F4" s="0">
-        <v>0.015847508601131821</v>
+        <v>0.017288191201234759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0082853705524512655</v>
+        <v>0.0090385860572196886</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00047787804430315939</v>
+        <v>0.00052132150287614865</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0044399593043420449</v>
+        <v>-0.0048435919683733619</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0085625928017231678</v>
+        <v>-0.0093410103291526325</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0048198702790294701</v>
+        <v>-0.0052580403043959167</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.036582075371504263</v>
+        <v>-0.039907718587095575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0058384551138173646</v>
+        <v>-0.0063692237605280644</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.01766737225771825</v>
+        <v>-0.019273497008419849</v>
       </c>
       <c r="C6" s="0">
-        <v>0.025052805487588148</v>
+        <v>0.02733033325918699</v>
       </c>
       <c r="D6" s="0">
-        <v>0.015307435373505429</v>
+        <v>0.016699020407460352</v>
       </c>
       <c r="E6" s="0">
-        <v>0.014520265607222083</v>
+        <v>0.015840289753333125</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0066914309064067257</v>
+        <v>-0.0072997428069891956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0023020802523908146</v>
+        <v>-0.0025113602753354947</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.010652694689352815</v>
+        <v>-0.011621121479294116</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0196436084117243</v>
+        <v>0.021429390994608444</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.014207047553320862</v>
+        <v>-0.015498597330895481</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.047179114701436153</v>
+        <v>-0.05146812512883947</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0086439608049339589</v>
+        <v>-0.0094297754235642683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.01815267496213796</v>
+        <v>0.019802918140513992</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0085034452486143497</v>
+        <v>0.0092764857257611189</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0033720345357681758</v>
+        <v>-0.003678583129928914</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0085503879284071771</v>
+        <v>-0.0093276959218987487</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.015761635637412119</v>
+        <v>-0.017194511604449514</v>
       </c>
       <c r="F8" s="0">
-        <v>0.02538917724228712</v>
+        <v>0.027697284264313338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00017079002586256609</v>
+        <v>-0.00018631639185001658</v>
       </c>
       <c r="B9" s="0">
-        <v>0.028876475009514402</v>
+        <v>0.031501609101288575</v>
       </c>
       <c r="C9" s="0">
-        <v>0.034264492651108258</v>
+        <v>0.03737944652848163</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.011766712857982808</v>
+        <v>-0.012836414026890286</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0051064526235027885</v>
+        <v>0.0055706755892759308</v>
       </c>
       <c r="F9" s="0">
-        <v>0.00094724869070161866</v>
+        <v>0.0010333622080381799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0012771533734267093</v>
+        <v>0.0013932582255565262</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0031078602302859748</v>
+        <v>-0.0033903929784936393</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0057817800053824864</v>
+        <v>-0.0063073963695081114</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.041829727059906063</v>
+        <v>-0.045632429519897655</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0045893676630391345</v>
+        <v>0.0050065829051336164</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.024550182391797237</v>
+        <v>-0.026782017154687976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.012689159337710199</v>
+        <v>-0.013842719277501858</v>
       </c>
       <c r="B11" s="0">
-        <v>0.014717500272420192</v>
+        <v>0.016055454842640149</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.015759548368244058</v>
+        <v>-0.017192234583538968</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0027626423006856804</v>
+        <v>0.0030137916007481058</v>
       </c>
       <c r="E11" s="0">
-        <v>0.017803945249597386</v>
+        <v>0.019422485726833472</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0053356745687662688</v>
+        <v>0.0058207358931995357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.025278264408699125</v>
+        <v>0.027576288445853747</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0033291672307690923</v>
+        <v>-0.0036318187972027571</v>
       </c>
       <c r="C12" s="0">
-        <v>0.022050599845630847</v>
+        <v>0.024055199831597318</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0079084659543959268</v>
+        <v>0.008627417404795612</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0088836496159150902</v>
+        <v>-0.0096912541264527197</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0014842243103112551</v>
+        <v>-0.0016191537930668742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-8.2851436778441645e-06</v>
+        <v>-9.0383385577541553e-06</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.024918299510690745</v>
+        <v>-0.027183599466208241</v>
       </c>
       <c r="C13" s="0">
-        <v>0.021081387042485467</v>
+        <v>0.022997876773620474</v>
       </c>
       <c r="D13" s="0">
-        <v>0.01378465033356352</v>
+        <v>0.015037800363887355</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0025030770803717295</v>
+        <v>-0.0027306295422238058</v>
       </c>
       <c r="F13" s="0">
-        <v>0.006365648575793359</v>
+        <v>0.0069443439008655683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0038155076845552971</v>
+        <v>0.0041623720195149705</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0050713455000894747</v>
+        <v>-0.0055323769091884523</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.004444395593463879</v>
+        <v>-0.0048484315565060498</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0023616510189400919</v>
+        <v>0.0025763465661163831</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0061280224323702059</v>
+        <v>-0.0066851153807674923</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.012878236006255428</v>
+        <v>-0.01404898473409677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.035978054093996126</v>
+        <v>0.03924878628435946</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0040252036024982507</v>
+        <v>0.0043911312027253846</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.008432312665722308</v>
+        <v>-0.0091988865444243562</v>
       </c>
       <c r="D15" s="0">
-        <v>0.011341617033836793</v>
+        <v>0.012372673127821865</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0078788176081440175</v>
+        <v>0.0085950737543389333</v>
       </c>
       <c r="F15" s="0">
-        <v>0.017105624610800729</v>
+        <v>0.018660681393600775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0016286775042814172</v>
+        <v>-0.0017767390955795714</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0054270640369038503</v>
+        <v>0.0059204334948040338</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.02200028105825208</v>
+        <v>-0.024000306609002264</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0024328635598658277</v>
+        <v>-0.0026540329743989788</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.00094928355797918584</v>
+        <v>-0.0010355820632499957</v>
       </c>
       <c r="F16" s="0">
-        <v>0.012033315741755535</v>
+        <v>0.013127253536460659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.037745539708100129</v>
+        <v>0.041176952408836398</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0046255433269163926</v>
+        <v>0.0050460472657269384</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.013382170990866749</v>
+        <v>-0.014598731990036251</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0033670196713674883</v>
+        <v>-0.0036731123687646083</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.023530518095735586</v>
+        <v>-0.025669656104438721</v>
       </c>
       <c r="F17" s="0">
-        <v>0.012339720673053889</v>
+        <v>0.013461513461513364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0022229991242196379</v>
+        <v>0.0024250899536941706</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0061553772284403396</v>
+        <v>0.0067149569764804462</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0028333528795307927</v>
+        <v>0.0030909304140335214</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.00720621516657316</v>
+        <v>-0.0078613256362616846</v>
       </c>
       <c r="E18" s="0">
-        <v>0.012567484052128652</v>
+        <v>0.013709982602322146</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.017467278108237394</v>
+        <v>-0.019055212481713435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.011670085371776218</v>
+        <v>-0.012731002223755894</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.010104686703339083</v>
+        <v>-0.011023294585460808</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0076859122752843123</v>
+        <v>0.0083846315730373711</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0022086510678514526</v>
+        <v>0.0024094375285652059</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.01838679110935848</v>
+        <v>-0.020058317573845519</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.027718411659505671</v>
+        <v>-0.030238267264915242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0029755900873912333</v>
+        <v>-0.0032460982771541635</v>
       </c>
       <c r="B20" s="0">
-        <v>0.002496591884463828</v>
+        <v>0.0027235547830514739</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.019867321799688975</v>
+        <v>-0.021673441963296958</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.008131680765951721</v>
+        <v>-0.0088709244719474278</v>
       </c>
       <c r="E20" s="0">
-        <v>0.025097621112113944</v>
+        <v>0.027379223031396949</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0057348301639496002</v>
+        <v>-0.006256178360672382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.029269435066536509</v>
+        <v>-0.031930292799857984</v>
       </c>
       <c r="B21" s="0">
-        <v>0.021602668103430922</v>
+        <v>0.023566547021924622</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.018248878756125242</v>
+        <v>-0.019907867733954754</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.014850295409029268</v>
+        <v>-0.016200322264395606</v>
       </c>
       <c r="E21" s="0">
-        <v>0.017919231956703308</v>
+        <v>0.019548253043676245</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.02436841204957152</v>
+        <v>-0.026583722235896279</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0083007514273499283</v>
+        <v>-0.0090553651934725532</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0015900373501521181</v>
+        <v>0.0017345862001659218</v>
       </c>
       <c r="C22" s="0">
-        <v>0.012826516110030606</v>
+        <v>0.013992563029124216</v>
       </c>
       <c r="D22" s="0">
-        <v>0.014128547427107119</v>
+        <v>0.015412960829571387</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0075717243419106683</v>
+        <v>0.0082600629184479968</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.003341073993247845</v>
+        <v>-0.0036448079926341137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0076520835880738436</v>
+        <v>-0.0083477275506260717</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.026685736313065478</v>
+        <v>-0.029111712341525986</v>
       </c>
       <c r="C23" s="0">
-        <v>0.02567044815328573</v>
+        <v>0.028004125258129786</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0199084257055272</v>
+        <v>0.021718282587847859</v>
       </c>
       <c r="E23" s="0">
-        <v>0.035036282604932467</v>
+        <v>0.038221399205380924</v>
       </c>
       <c r="F23" s="0">
-        <v>0.011523117701186747</v>
+        <v>0.012570673855839987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.010323988584858057</v>
+        <v>0.011262533001663466</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0076680815700012062</v>
+        <v>-0.0083651798945467148</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0090336394684220611</v>
+        <v>-0.0098548794200967182</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.022272619955686468</v>
+        <v>-0.024297403588021627</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.019129445998248396</v>
+        <v>-0.02086848654354384</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.0027425959920238663</v>
+        <v>-0.002991922900389743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.011271525326997434</v>
+        <v>-0.012296209447633599</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.010729673773152093</v>
+        <v>-0.01170509866162045</v>
       </c>
       <c r="C25" s="0">
-        <v>0.019090731047252785</v>
+        <v>0.020826252051548422</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.020314569227612711</v>
+        <v>-0.022161348248304791</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.010630733042741425</v>
+        <v>-0.011597163319354287</v>
       </c>
       <c r="F25" s="0">
-        <v>0.02348711774662865</v>
+        <v>0.025622310269049375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.026229354922464421</v>
+        <v>-0.028613841733597489</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0057219597592267912</v>
+        <v>-0.0062421379191566762</v>
       </c>
       <c r="C26" s="0">
-        <v>0.023380549701947806</v>
+        <v>0.025506054220306773</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0015699712856157011</v>
+        <v>0.001712695947944376</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0039908036586780438</v>
+        <v>-0.0043536039912851487</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.004783696892605771</v>
+        <v>-0.0052185784282971492</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.017106861977189858</v>
+        <v>-0.018662031247843547</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0034078587504726698</v>
+        <v>0.0037176640914247105</v>
       </c>
       <c r="C27" s="0">
-        <v>0.031149339223873418</v>
+        <v>0.033981097335134547</v>
       </c>
       <c r="D27" s="0">
-        <v>0.010585119280771549</v>
+        <v>0.011547402851750599</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.00010175010175006438</v>
+        <v>-0.00011100011100007023</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.014709585361759259</v>
+        <v>-0.016046820394646555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.011624806927601927</v>
+        <v>-0.012681607557383956</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0095214679716784101</v>
+        <v>-0.010387055969103609</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0086151541465551151</v>
+        <v>-0.0093983499780601054</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0069124026422163198</v>
+        <v>-0.0075408028824178741</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.010760877516036771</v>
+        <v>-0.01173913910840374</v>
       </c>
       <c r="F28" s="0">
-        <v>0.0022488463984626783</v>
+        <v>0.0024532869801411339</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.010900590849103331</v>
+        <v>0.011891553653567311</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0014398257151880256</v>
+        <v>-0.0015707189620232653</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.02354452882834529</v>
+        <v>-0.025684940540013079</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0015304049410255205</v>
+        <v>0.0016695326629369012</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0089916002959479768</v>
+        <v>0.0098090185046705858</v>
       </c>
       <c r="F29" s="0">
-        <v>0.022099739491043935</v>
+        <v>0.024108806717502373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0064032782782783015</v>
+        <v>0.0069853944853944805</v>
       </c>
       <c r="B30" s="0">
-        <v>0.013829104725843866</v>
+        <v>0.015086296064556692</v>
       </c>
       <c r="C30" s="0">
-        <v>0.028132342142003885</v>
+        <v>0.030689827791276991</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0087791013062751833</v>
+        <v>0.0095772014250274373</v>
       </c>
       <c r="E30" s="0">
-        <v>0.003809380032205989</v>
+        <v>0.0041556873078610335</v>
       </c>
       <c r="F30" s="0">
-        <v>0.041866768697432222</v>
+        <v>0.045672838579017105</v>
       </c>
     </row>
   </sheetData>
